--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H2">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I2">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J2">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N2">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O2">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P2">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q2">
-        <v>11.107959037405</v>
+        <v>130.126941504875</v>
       </c>
       <c r="R2">
-        <v>99.97163133664499</v>
+        <v>1171.142473543875</v>
       </c>
       <c r="S2">
-        <v>6.510691981025777E-06</v>
+        <v>0.0002722623289113286</v>
       </c>
       <c r="T2">
-        <v>6.510691981025777E-06</v>
+        <v>0.0002722623289113287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H3">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I3">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J3">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.197135</v>
       </c>
       <c r="O3">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P3">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q3">
-        <v>3.526371971275</v>
+        <v>11.860904320125</v>
       </c>
       <c r="R3">
-        <v>31.737347741475</v>
+        <v>106.748138881125</v>
       </c>
       <c r="S3">
-        <v>2.06690730837065E-06</v>
+        <v>2.481636312854315E-05</v>
       </c>
       <c r="T3">
-        <v>2.06690730837065E-06</v>
+        <v>2.481636312854316E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H4">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I4">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J4">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N4">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O4">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P4">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q4">
-        <v>13808.22740758433</v>
+        <v>15912.92191802939</v>
       </c>
       <c r="R4">
-        <v>124274.046668259</v>
+        <v>143216.2972622645</v>
       </c>
       <c r="S4">
-        <v>0.008093396379299402</v>
+        <v>0.03329432883830975</v>
       </c>
       <c r="T4">
-        <v>0.008093396379299402</v>
+        <v>0.03329432883830977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H5">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I5">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J5">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N5">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O5">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P5">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q5">
-        <v>13.72186070244555</v>
+        <v>12.52243432346667</v>
       </c>
       <c r="R5">
-        <v>123.49674632201</v>
+        <v>112.7019089112</v>
       </c>
       <c r="S5">
-        <v>8.042774387205158E-06</v>
+        <v>2.620047081040835E-05</v>
       </c>
       <c r="T5">
-        <v>8.04277438720516E-06</v>
+        <v>2.620047081040836E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H6">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I6">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J6">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N6">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O6">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P6">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q6">
-        <v>2622.157844338567</v>
+        <v>9810.134023845283</v>
       </c>
       <c r="R6">
-        <v>23599.42059904711</v>
+        <v>88291.20621460755</v>
       </c>
       <c r="S6">
-        <v>0.001536921588622212</v>
+        <v>0.02052557222490561</v>
       </c>
       <c r="T6">
-        <v>0.001536921588622212</v>
+        <v>0.02052557222490562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H7">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I7">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J7">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N7">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O7">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P7">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q7">
-        <v>41077.89996634532</v>
+        <v>13355.94266887253</v>
       </c>
       <c r="R7">
-        <v>369701.0996971079</v>
+        <v>120203.4840198528</v>
       </c>
       <c r="S7">
-        <v>0.02407693015500561</v>
+        <v>0.02794440577624114</v>
       </c>
       <c r="T7">
-        <v>0.02407693015500561</v>
+        <v>0.02794440577624115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>370.284272</v>
       </c>
       <c r="I8">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J8">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N8">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O8">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P8">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q8">
-        <v>155.146517978096</v>
+        <v>540.3626266745866</v>
       </c>
       <c r="R8">
-        <v>1396.318661802864</v>
+        <v>4863.26364007128</v>
       </c>
       <c r="S8">
-        <v>9.093580441578939E-05</v>
+        <v>0.001130591294113788</v>
       </c>
       <c r="T8">
-        <v>9.093580441578939E-05</v>
+        <v>0.001130591294113788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>370.284272</v>
       </c>
       <c r="I9">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J9">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.197135</v>
       </c>
       <c r="O9">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P9">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q9">
         <v>49.25336244008</v>
@@ -1013,10 +1013,10 @@
         <v>443.28026196072</v>
       </c>
       <c r="S9">
-        <v>2.886880216224669E-05</v>
+        <v>0.0001030519507303379</v>
       </c>
       <c r="T9">
-        <v>2.886880216224669E-05</v>
+        <v>0.0001030519507303379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>370.284272</v>
       </c>
       <c r="I10">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J10">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N10">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O10">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P10">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q10">
-        <v>192861.56840536</v>
+        <v>66079.69253908747</v>
       </c>
       <c r="R10">
-        <v>1735754.11564824</v>
+        <v>594717.2328517872</v>
       </c>
       <c r="S10">
-        <v>0.1130416724293372</v>
+        <v>0.1382573875661444</v>
       </c>
       <c r="T10">
-        <v>0.1130416724293372</v>
+        <v>0.1382573875661444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>370.284272</v>
       </c>
       <c r="I11">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J11">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N11">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O11">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P11">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q11">
-        <v>191.6552717736924</v>
+        <v>52.00041916865422</v>
       </c>
       <c r="R11">
-        <v>1724.897445963232</v>
+        <v>468.003772517888</v>
       </c>
       <c r="S11">
-        <v>0.0001123346275275609</v>
+        <v>0.0001087995695856165</v>
       </c>
       <c r="T11">
-        <v>0.000112334627527561</v>
+        <v>0.0001087995695856165</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>370.284272</v>
       </c>
       <c r="I12">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J12">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N12">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O12">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P12">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q12">
-        <v>36624.06908129169</v>
+        <v>40737.37327451268</v>
       </c>
       <c r="R12">
-        <v>329616.6217316251</v>
+        <v>366636.3594706141</v>
       </c>
       <c r="S12">
-        <v>0.02146641269356042</v>
+        <v>0.08523409520874216</v>
       </c>
       <c r="T12">
-        <v>0.02146641269356042</v>
+        <v>0.08523409520874219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>370.284272</v>
       </c>
       <c r="I13">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J13">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N13">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O13">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P13">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q13">
-        <v>573741.1458009735</v>
+        <v>55461.62984240105</v>
       </c>
       <c r="R13">
-        <v>5163670.312208761</v>
+        <v>499154.6685816094</v>
       </c>
       <c r="S13">
-        <v>0.336286068806354</v>
+        <v>0.1160414002779313</v>
       </c>
       <c r="T13">
-        <v>0.336286068806354</v>
+        <v>0.1160414002779314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H14">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I14">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J14">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N14">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O14">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P14">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q14">
-        <v>38.747601553553</v>
+        <v>140.3198699947567</v>
       </c>
       <c r="R14">
-        <v>348.728413981977</v>
+        <v>1262.87882995281</v>
       </c>
       <c r="S14">
-        <v>2.271107571329636E-05</v>
+        <v>0.0002935888153175111</v>
       </c>
       <c r="T14">
-        <v>2.271107571329636E-05</v>
+        <v>0.0002935888153175112</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H15">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I15">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J15">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.197135</v>
       </c>
       <c r="O15">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P15">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q15">
-        <v>12.300950661815</v>
+        <v>12.78997671791</v>
       </c>
       <c r="R15">
-        <v>110.708555956335</v>
+        <v>115.10979046119</v>
       </c>
       <c r="S15">
-        <v>7.209938438122152E-06</v>
+        <v>2.676024509351426E-05</v>
       </c>
       <c r="T15">
-        <v>7.209938438122152E-06</v>
+        <v>2.676024509351427E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H16">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I16">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J16">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N16">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O16">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P16">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q16">
-        <v>48166.87673660354</v>
+        <v>17159.39150610825</v>
       </c>
       <c r="R16">
-        <v>433501.8906294319</v>
+        <v>154434.5235549742</v>
       </c>
       <c r="S16">
-        <v>0.02823198186669976</v>
+        <v>0.0359022954057464</v>
       </c>
       <c r="T16">
-        <v>0.02823198186669976</v>
+        <v>0.0359022954057464</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H17">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I17">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J17">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N17">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O17">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P17">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q17">
-        <v>47.86560602909177</v>
+        <v>13.50332479935289</v>
       </c>
       <c r="R17">
-        <v>430.7904542618259</v>
+        <v>121.529923194176</v>
       </c>
       <c r="S17">
-        <v>2.805539850220321E-05</v>
+        <v>2.825277083593166E-05</v>
       </c>
       <c r="T17">
-        <v>2.805539850220322E-05</v>
+        <v>2.825277083593166E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H18">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I18">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J18">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N18">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O18">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P18">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q18">
-        <v>9146.804288782309</v>
+        <v>10578.56824219248</v>
       </c>
       <c r="R18">
-        <v>82321.23859904078</v>
+        <v>95207.11417973232</v>
       </c>
       <c r="S18">
-        <v>0.005361203181831276</v>
+        <v>0.02213335373027917</v>
       </c>
       <c r="T18">
-        <v>0.005361203181831276</v>
+        <v>0.02213335373027918</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H19">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I19">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J19">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N19">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O19">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P19">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q19">
-        <v>143290.9587794534</v>
+        <v>14402.12239894539</v>
       </c>
       <c r="R19">
-        <v>1289618.629015081</v>
+        <v>129619.1015905085</v>
       </c>
       <c r="S19">
-        <v>0.08398692263244323</v>
+        <v>0.03013330936895942</v>
       </c>
       <c r="T19">
-        <v>0.08398692263244324</v>
+        <v>0.03013330936895943</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H20">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I20">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J20">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N20">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O20">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P20">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q20">
-        <v>47.091967399544</v>
+        <v>355.1764479390417</v>
       </c>
       <c r="R20">
-        <v>423.827706595896</v>
+        <v>3196.588031451375</v>
       </c>
       <c r="S20">
-        <v>2.760194681007444E-05</v>
+        <v>0.0007431294839640414</v>
       </c>
       <c r="T20">
-        <v>2.760194681007444E-05</v>
+        <v>0.0007431294839640416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H21">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I21">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J21">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.197135</v>
       </c>
       <c r="O21">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P21">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q21">
-        <v>14.94998256212</v>
+        <v>32.37387905262501</v>
       </c>
       <c r="R21">
-        <v>134.54984305908</v>
+        <v>291.364911473625</v>
       </c>
       <c r="S21">
-        <v>8.762611678338424E-06</v>
+        <v>6.773530219667194E-05</v>
       </c>
       <c r="T21">
-        <v>8.762611678338424E-06</v>
+        <v>6.773530219667196E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H22">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I22">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J22">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N22">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O22">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P22">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q22">
-        <v>58539.70047366704</v>
+        <v>43433.70418004684</v>
       </c>
       <c r="R22">
-        <v>526857.3042630034</v>
+        <v>390903.3376204215</v>
       </c>
       <c r="S22">
-        <v>0.03431179005631209</v>
+        <v>0.09087558130967247</v>
       </c>
       <c r="T22">
-        <v>0.03431179005631209</v>
+        <v>0.09087558130967248</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H23">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I23">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J23">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N23">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O23">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P23">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q23">
-        <v>58.1735505761831</v>
+        <v>34.17949958035555</v>
       </c>
       <c r="R23">
-        <v>523.561955185648</v>
+        <v>307.6154962232</v>
       </c>
       <c r="S23">
-        <v>3.409717914593921E-05</v>
+        <v>7.151317051759613E-05</v>
       </c>
       <c r="T23">
-        <v>3.409717914593922E-05</v>
+        <v>7.151317051759615E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H24">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I24">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J24">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N24">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O24">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P24">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q24">
-        <v>11116.5850815829</v>
+        <v>26776.38094079673</v>
       </c>
       <c r="R24">
-        <v>100049.2657342461</v>
+        <v>240987.4284671705</v>
       </c>
       <c r="S24">
-        <v>0.006515747951836249</v>
+        <v>0.05602375457725726</v>
       </c>
       <c r="T24">
-        <v>0.006515747951836249</v>
+        <v>0.05602375457725728</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H25">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I25">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J25">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N25">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O25">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P25">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q25">
-        <v>174148.9250674064</v>
+        <v>36454.52833324231</v>
       </c>
       <c r="R25">
-        <v>1567340.325606658</v>
+        <v>328090.7549991808</v>
       </c>
       <c r="S25">
-        <v>0.102073657827019</v>
+        <v>0.07627317347653742</v>
       </c>
       <c r="T25">
-        <v>0.1020736578270191</v>
+        <v>0.07627317347653743</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H26">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I26">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J26">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N26">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O26">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P26">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q26">
-        <v>44.936554698427</v>
+        <v>130.3555787454316</v>
       </c>
       <c r="R26">
-        <v>404.428992285843</v>
+        <v>1173.200208708885</v>
       </c>
       <c r="S26">
-        <v>2.633859787786213E-05</v>
+        <v>0.0002727407026198775</v>
       </c>
       <c r="T26">
-        <v>2.633859787786213E-05</v>
+        <v>0.0002727407026198776</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H27">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I27">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J27">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.197135</v>
       </c>
       <c r="O27">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P27">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q27">
-        <v>14.265717621085</v>
+        <v>11.881744312235</v>
       </c>
       <c r="R27">
-        <v>128.391458589765</v>
+        <v>106.935698810115</v>
       </c>
       <c r="S27">
-        <v>8.361544457124181E-06</v>
+        <v>2.485996628036355E-05</v>
       </c>
       <c r="T27">
-        <v>8.361544457124181E-06</v>
+        <v>2.485996628036356E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H28">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I28">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J28">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N28">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O28">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P28">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q28">
-        <v>55860.32178366674</v>
+        <v>15940.88143597745</v>
       </c>
       <c r="R28">
-        <v>502742.8960530007</v>
+        <v>143467.932923797</v>
       </c>
       <c r="S28">
-        <v>0.0327413296960989</v>
+        <v>0.0333528280498008</v>
       </c>
       <c r="T28">
-        <v>0.03274132969609891</v>
+        <v>0.03335282804980082</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H29">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I29">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J29">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N29">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O29">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P29">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q29">
-        <v>55.51093067081488</v>
+        <v>12.54443664516622</v>
       </c>
       <c r="R29">
-        <v>499.5983760373339</v>
+        <v>112.899929806496</v>
       </c>
       <c r="S29">
-        <v>3.253654158794814E-05</v>
+        <v>2.624650588414557E-05</v>
       </c>
       <c r="T29">
-        <v>3.253654158794815E-05</v>
+        <v>2.624650588414559E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H30">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I30">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J30">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N30">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O30">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P30">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q30">
-        <v>10607.77583021738</v>
+        <v>9827.370746285416</v>
       </c>
       <c r="R30">
-        <v>95469.98247195641</v>
+        <v>88446.33671656874</v>
       </c>
       <c r="S30">
-        <v>0.006217520320497131</v>
+        <v>0.02056163631847514</v>
       </c>
       <c r="T30">
-        <v>0.006217520320497131</v>
+        <v>0.02056163631847515</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H31">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I31">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J31">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N31">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O31">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P31">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q31">
-        <v>166178.0793859878</v>
+        <v>13379.40949166518</v>
       </c>
       <c r="R31">
-        <v>1495602.714473891</v>
+        <v>120414.6854249866</v>
       </c>
       <c r="S31">
-        <v>0.09740171756461331</v>
+        <v>0.02799350500005895</v>
       </c>
       <c r="T31">
-        <v>0.09740171756461333</v>
+        <v>0.02799350500005896</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H32">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I32">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J32">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N32">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O32">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P32">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q32">
-        <v>32.349139338889</v>
+        <v>288.87924684817</v>
       </c>
       <c r="R32">
-        <v>291.142254050001</v>
+        <v>2599.91322163353</v>
       </c>
       <c r="S32">
-        <v>1.896075430036815E-05</v>
+        <v>0.0006044170070506638</v>
       </c>
       <c r="T32">
-        <v>1.896075430036815E-05</v>
+        <v>0.000604417007050664</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H33">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I33">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J33">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.197135</v>
       </c>
       <c r="O33">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P33">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q33">
-        <v>10.269672212095</v>
+        <v>26.33097394983</v>
       </c>
       <c r="R33">
-        <v>92.42704990885501</v>
+        <v>236.97876554847</v>
       </c>
       <c r="S33">
-        <v>6.019348135323191E-06</v>
+        <v>5.509183730269775E-05</v>
       </c>
       <c r="T33">
-        <v>6.019348135323191E-06</v>
+        <v>5.509183730269777E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H34">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I34">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J34">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N34">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O34">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P34">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q34">
-        <v>40212.99240723204</v>
+        <v>35326.37319891092</v>
       </c>
       <c r="R34">
-        <v>361916.9316650883</v>
+        <v>317937.3587901983</v>
       </c>
       <c r="S34">
-        <v>0.02356998313706243</v>
+        <v>0.07391275417601284</v>
       </c>
       <c r="T34">
-        <v>0.02356998313706243</v>
+        <v>0.07391275417601287</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H35">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I35">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J35">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N35">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O35">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P35">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q35">
-        <v>39.96147108190421</v>
+        <v>27.79955752616533</v>
       </c>
       <c r="R35">
-        <v>359.653239737138</v>
+        <v>250.196017735488</v>
       </c>
       <c r="S35">
-        <v>2.342255930606391E-05</v>
+        <v>5.816452909173057E-05</v>
       </c>
       <c r="T35">
-        <v>2.342255930606392E-05</v>
+        <v>5.816452909173061E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H36">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I36">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J36">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N36">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O36">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P36">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q36">
-        <v>7636.375790496751</v>
+        <v>21778.30428898433</v>
       </c>
       <c r="R36">
-        <v>68727.38211447075</v>
+        <v>196004.738600859</v>
       </c>
       <c r="S36">
-        <v>0.004475897908505569</v>
+        <v>0.04556636601834151</v>
       </c>
       <c r="T36">
-        <v>0.004475897908505569</v>
+        <v>0.04556636601834153</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H37">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I37">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J37">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N37">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O37">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P37">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q37">
-        <v>119629.0610440247</v>
+        <v>29649.92963418487</v>
       </c>
       <c r="R37">
-        <v>1076661.549396222</v>
+        <v>266849.3667076639</v>
       </c>
       <c r="S37">
-        <v>0.07011800870116738</v>
+        <v>0.0620360303631494</v>
       </c>
       <c r="T37">
-        <v>0.0701180087011674</v>
+        <v>0.06203603036314942</v>
       </c>
     </row>
   </sheetData>
